--- a/assets/spreadsheets/addressBookcontacts.xlsx
+++ b/assets/spreadsheets/addressBookcontacts.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="15">
   <si>
     <t/>
   </si>
@@ -58,60 +58,6 @@
   <si>
     <t>MOBILE</t>
   </si>
-  <si>
-    <t>Mr.</t>
-  </si>
-  <si>
-    <t>sreerewww</t>
-  </si>
-  <si>
-    <t>df</t>
-  </si>
-  <si>
-    <t>Female</t>
-  </si>
-  <si>
-    <t>2024-10-30</t>
-  </si>
-  <si>
-    <t>clark-tibbs-oqStl2L5oxI-unsplash3.jpg</t>
-  </si>
-  <si>
-    <t>aef</t>
-  </si>
-  <si>
-    <t>sfd</t>
-  </si>
-  <si>
-    <t>fdsa</t>
-  </si>
-  <si>
-    <t>sdf</t>
-  </si>
-  <si>
-    <t>ram@gmail.com</t>
-  </si>
-  <si>
-    <t>ds</t>
-  </si>
-  <si>
-    <t>Male</t>
-  </si>
-  <si>
-    <t>2024-11-06</t>
-  </si>
-  <si>
-    <t>user-grey-icon.png</t>
-  </si>
-  <si>
-    <t>safd</t>
-  </si>
-  <si>
-    <t>sdaf</t>
-  </si>
-  <si>
-    <t>sadf</t>
-  </si>
 </sst>
 </file>
 
@@ -155,14 +101,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:N1"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="6" max="6" width="34.41015625" customWidth="true" bestFit="true"/>
-    <col min="13" max="13" width="15.84375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="17.03125" customWidth="true" bestFit="true"/>
     <col min="1" max="1" width="11.3828125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="11.52734375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="10.96484375" customWidth="true" bestFit="true"/>
@@ -174,7 +119,8 @@
     <col min="10" max="10" width="6.5390625" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="9.8359375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="9.20703125" customWidth="true" bestFit="true"/>
-    <col min="14" max="14" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="13" max="13" width="6.74609375" customWidth="true" bestFit="true"/>
+    <col min="14" max="14" width="8.125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -221,94 +167,6 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L2" t="n">
-        <v>639001.0</v>
-      </c>
-      <c r="M2" t="s">
-        <v>25</v>
-      </c>
-      <c r="N2" t="n">
-        <v>9.791671267E9</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G3" t="s">
-        <v>30</v>
-      </c>
-      <c r="H3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J3" t="s">
-        <v>31</v>
-      </c>
-      <c r="K3" t="s">
-        <v>32</v>
-      </c>
-      <c r="L3" t="n">
-        <v>683992.0</v>
-      </c>
-      <c r="M3" t="s">
-        <v>25</v>
-      </c>
-      <c r="N3" t="n">
-        <v>9.874561235E9</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/assets/spreadsheets/addressBookcontacts.xlsx
+++ b/assets/spreadsheets/addressBookcontacts.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="35">
   <si>
     <t/>
   </si>
@@ -62,55 +62,61 @@
     <t>Mr.</t>
   </si>
   <si>
-    <t>sreerewww</t>
+    <t xml:space="preserve">Gosal </t>
+  </si>
+  <si>
+    <t>Ram</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>2024-12-02</t>
+  </si>
+  <si>
+    <t>kellen-riggin-ZHnTWmiz000-unsplash.jpg</t>
+  </si>
+  <si>
+    <t>sfd</t>
+  </si>
+  <si>
+    <t>fsda</t>
+  </si>
+  <si>
+    <t>sfda</t>
+  </si>
+  <si>
+    <t>safd</t>
+  </si>
+  <si>
+    <t>sdfa</t>
+  </si>
+  <si>
+    <t>gosalram554@gmail.com</t>
+  </si>
+  <si>
+    <t>sree</t>
   </si>
   <si>
     <t>df</t>
   </si>
   <si>
-    <t>Female</t>
-  </si>
-  <si>
-    <t>2024-10-30</t>
-  </si>
-  <si>
-    <t>clark-tibbs-oqStl2L5oxI-unsplash3.jpg</t>
-  </si>
-  <si>
-    <t>aef</t>
-  </si>
-  <si>
-    <t>sfd</t>
-  </si>
-  <si>
-    <t>fdsa</t>
+    <t>2024-12-13</t>
+  </si>
+  <si>
+    <t>jason-leung-T844CLUxqvE-unsplash.jpg</t>
   </si>
   <si>
     <t>sdf</t>
   </si>
   <si>
-    <t>ram@gmail.com</t>
-  </si>
-  <si>
-    <t>ds</t>
-  </si>
-  <si>
-    <t>Male</t>
-  </si>
-  <si>
-    <t>2024-11-06</t>
-  </si>
-  <si>
-    <t>user-grey-icon.png</t>
-  </si>
-  <si>
-    <t>safd</t>
-  </si>
-  <si>
-    <t>sdaf</t>
-  </si>
-  <si>
-    <t>sadf</t>
+    <t>asdf</t>
+  </si>
+  <si>
+    <t>dsfa</t>
+  </si>
+  <si>
+    <t>gosal@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -161,8 +167,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="6" max="6" width="34.41015625" customWidth="true" bestFit="true"/>
-    <col min="13" max="13" width="15.84375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="37.65625" customWidth="true" bestFit="true"/>
+    <col min="13" max="13" width="23.80078125" customWidth="true" bestFit="true"/>
     <col min="1" max="1" width="11.3828125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="11.52734375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="10.96484375" customWidth="true" bestFit="true"/>
@@ -250,16 +256,16 @@
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L2" t="n">
         <v>639001.0</v>
       </c>
       <c r="M2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N2" t="n">
         <v>9.791671267E9</v>
@@ -270,43 +276,43 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="D3" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="E3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H3" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="I3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K3" t="s">
         <v>23</v>
       </c>
-      <c r="J3" t="s">
-        <v>31</v>
-      </c>
-      <c r="K3" t="s">
-        <v>32</v>
-      </c>
       <c r="L3" t="n">
-        <v>683992.0</v>
+        <v>629001.0</v>
       </c>
       <c r="M3" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="N3" t="n">
-        <v>9.874561235E9</v>
+        <v>1.234567895E9</v>
       </c>
     </row>
   </sheetData>

--- a/assets/spreadsheets/addressBookcontacts.xlsx
+++ b/assets/spreadsheets/addressBookcontacts.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="44">
   <si>
     <t/>
   </si>
@@ -62,10 +62,7 @@
     <t>Mr.</t>
   </si>
   <si>
-    <t xml:space="preserve">Gosal </t>
-  </si>
-  <si>
-    <t>Ram</t>
+    <t>Abhijith</t>
   </si>
   <si>
     <t>Male</t>
@@ -74,25 +71,64 @@
     <t>2024-12-02</t>
   </si>
   <si>
+    <t>jason-leung-T844CLUxqvE-unsplash.jpg</t>
+  </si>
+  <si>
+    <t>sd</t>
+  </si>
+  <si>
+    <t>sda</t>
+  </si>
+  <si>
+    <t>sfd</t>
+  </si>
+  <si>
+    <t>sdfa</t>
+  </si>
+  <si>
+    <t>sdf</t>
+  </si>
+  <si>
+    <t>abhijithtechversant@gmail.com</t>
+  </si>
+  <si>
+    <t>Adarsh</t>
+  </si>
+  <si>
+    <t>US</t>
+  </si>
+  <si>
+    <t>1999-11-20</t>
+  </si>
+  <si>
+    <t>asdf</t>
+  </si>
+  <si>
+    <t>sfda</t>
+  </si>
+  <si>
+    <t>SDFA</t>
+  </si>
+  <si>
+    <t>SFD</t>
+  </si>
+  <si>
+    <t>ASFD</t>
+  </si>
+  <si>
+    <t>gosal88@gmail.com</t>
+  </si>
+  <si>
     <t>kellen-riggin-ZHnTWmiz000-unsplash.jpg</t>
   </si>
   <si>
-    <t>sfd</t>
-  </si>
-  <si>
     <t>fsda</t>
   </si>
   <si>
-    <t>sfda</t>
-  </si>
-  <si>
     <t>safd</t>
   </si>
   <si>
-    <t>sdfa</t>
-  </si>
-  <si>
-    <t>gosalram554@gmail.com</t>
+    <t>abhijithff59@gmail.com</t>
   </si>
   <si>
     <t>sree</t>
@@ -102,15 +138,6 @@
   </si>
   <si>
     <t>2024-12-13</t>
-  </si>
-  <si>
-    <t>jason-leung-T844CLUxqvE-unsplash.jpg</t>
-  </si>
-  <si>
-    <t>sdf</t>
-  </si>
-  <si>
-    <t>asdf</t>
   </si>
   <si>
     <t>dsfa</t>
@@ -161,14 +188,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="6" max="6" width="37.65625" customWidth="true" bestFit="true"/>
-    <col min="13" max="13" width="23.80078125" customWidth="true" bestFit="true"/>
+    <col min="13" max="13" width="29.63671875" customWidth="true" bestFit="true"/>
     <col min="1" max="1" width="11.3828125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="11.52734375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="10.96484375" customWidth="true" bestFit="true"/>
@@ -234,41 +261,41 @@
       <c r="B2" t="s">
         <v>16</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" t="n">
+        <v>123.0</v>
+      </c>
+      <c r="D2" t="s">
         <v>17</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>19</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>20</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>21</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>22</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>23</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>24</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="n">
+        <v>629001.0</v>
+      </c>
+      <c r="M2" t="s">
         <v>25</v>
       </c>
-      <c r="L2" t="n">
-        <v>639001.0</v>
-      </c>
-      <c r="M2" t="s">
-        <v>26</v>
-      </c>
       <c r="N2" t="n">
-        <v>9.791671267E9</v>
+        <v>9.791674569E9</v>
       </c>
     </row>
     <row r="3">
@@ -276,42 +303,130 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" t="s">
         <v>27</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" t="s">
         <v>28</v>
       </c>
-      <c r="D3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" t="s">
         <v>29</v>
       </c>
-      <c r="F3" t="s">
+      <c r="H3" t="s">
         <v>30</v>
       </c>
-      <c r="G3" t="s">
+      <c r="I3" t="s">
         <v>31</v>
       </c>
-      <c r="H3" t="s">
+      <c r="J3" t="s">
         <v>32</v>
       </c>
-      <c r="I3" t="s">
-        <v>25</v>
-      </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>33</v>
       </c>
-      <c r="K3" t="s">
-        <v>23</v>
-      </c>
       <c r="L3" t="n">
-        <v>629001.0</v>
+        <v>639001.0</v>
       </c>
       <c r="M3" t="s">
         <v>34</v>
       </c>
       <c r="N3" t="n">
+        <v>9.791671262E9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" t="s">
+        <v>36</v>
+      </c>
+      <c r="I4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" t="s">
+        <v>37</v>
+      </c>
+      <c r="K4" t="s">
+        <v>23</v>
+      </c>
+      <c r="L4" t="n">
+        <v>639001.0</v>
+      </c>
+      <c r="M4" t="s">
+        <v>38</v>
+      </c>
+      <c r="N4" t="n">
+        <v>9.791671267E9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5" t="s">
+        <v>23</v>
+      </c>
+      <c r="J5" t="s">
+        <v>42</v>
+      </c>
+      <c r="K5" t="s">
+        <v>30</v>
+      </c>
+      <c r="L5" t="n">
+        <v>629001.0</v>
+      </c>
+      <c r="M5" t="s">
+        <v>43</v>
+      </c>
+      <c r="N5" t="n">
         <v>1.234567895E9</v>
       </c>
     </row>

--- a/assets/spreadsheets/addressBookcontacts.xlsx
+++ b/assets/spreadsheets/addressBookcontacts.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="44">
   <si>
     <t/>
   </si>
@@ -57,6 +57,93 @@
   </si>
   <si>
     <t>MOBILE</t>
+  </si>
+  <si>
+    <t>Mr.</t>
+  </si>
+  <si>
+    <t>Abhijith</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>2024-12-02</t>
+  </si>
+  <si>
+    <t>jason-leung-T844CLUxqvE-unsplash.jpg</t>
+  </si>
+  <si>
+    <t>sd</t>
+  </si>
+  <si>
+    <t>sda</t>
+  </si>
+  <si>
+    <t>sfd</t>
+  </si>
+  <si>
+    <t>sdfa</t>
+  </si>
+  <si>
+    <t>sdf</t>
+  </si>
+  <si>
+    <t>abhijithtechversant@gmail.com</t>
+  </si>
+  <si>
+    <t>Adarsh</t>
+  </si>
+  <si>
+    <t>US</t>
+  </si>
+  <si>
+    <t>1999-11-20</t>
+  </si>
+  <si>
+    <t>asdf</t>
+  </si>
+  <si>
+    <t>sfda</t>
+  </si>
+  <si>
+    <t>SDFA</t>
+  </si>
+  <si>
+    <t>SFD</t>
+  </si>
+  <si>
+    <t>ASFD</t>
+  </si>
+  <si>
+    <t>gosal88@gmail.com</t>
+  </si>
+  <si>
+    <t>kellen-riggin-ZHnTWmiz000-unsplash.jpg</t>
+  </si>
+  <si>
+    <t>fsda</t>
+  </si>
+  <si>
+    <t>safd</t>
+  </si>
+  <si>
+    <t>abhijithff59@gmail.com</t>
+  </si>
+  <si>
+    <t>sree</t>
+  </si>
+  <si>
+    <t>df</t>
+  </si>
+  <si>
+    <t>2024-12-13</t>
+  </si>
+  <si>
+    <t>dsfa</t>
+  </si>
+  <si>
+    <t>gosal@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -101,13 +188,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:N1"/>
+  <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="6" max="6" width="17.03125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="37.65625" customWidth="true" bestFit="true"/>
+    <col min="13" max="13" width="29.63671875" customWidth="true" bestFit="true"/>
     <col min="1" max="1" width="11.3828125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="11.52734375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="10.96484375" customWidth="true" bestFit="true"/>
@@ -119,8 +207,7 @@
     <col min="10" max="10" width="6.5390625" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="9.8359375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="9.20703125" customWidth="true" bestFit="true"/>
-    <col min="13" max="13" width="6.74609375" customWidth="true" bestFit="true"/>
-    <col min="14" max="14" width="8.125" customWidth="true" bestFit="true"/>
+    <col min="14" max="14" width="12.1875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -167,6 +254,182 @@
         <v>14</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="n">
+        <v>123.0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" t="n">
+        <v>629001.0</v>
+      </c>
+      <c r="M2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N2" t="n">
+        <v>9.791674569E9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L3" t="n">
+        <v>639001.0</v>
+      </c>
+      <c r="M3" t="s">
+        <v>34</v>
+      </c>
+      <c r="N3" t="n">
+        <v>9.791671262E9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" t="s">
+        <v>36</v>
+      </c>
+      <c r="I4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" t="s">
+        <v>37</v>
+      </c>
+      <c r="K4" t="s">
+        <v>23</v>
+      </c>
+      <c r="L4" t="n">
+        <v>639001.0</v>
+      </c>
+      <c r="M4" t="s">
+        <v>38</v>
+      </c>
+      <c r="N4" t="n">
+        <v>9.791671267E9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5" t="s">
+        <v>23</v>
+      </c>
+      <c r="J5" t="s">
+        <v>42</v>
+      </c>
+      <c r="K5" t="s">
+        <v>30</v>
+      </c>
+      <c r="L5" t="n">
+        <v>629001.0</v>
+      </c>
+      <c r="M5" t="s">
+        <v>43</v>
+      </c>
+      <c r="N5" t="n">
+        <v>1.234567895E9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/assets/spreadsheets/addressBookcontacts.xlsx
+++ b/assets/spreadsheets/addressBookcontacts.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="28">
   <si>
     <t/>
   </si>
@@ -60,6 +60,42 @@
   </si>
   <si>
     <t>MOBILE</t>
+  </si>
+  <si>
+    <t>Roles</t>
+  </si>
+  <si>
+    <t>73135652-3192-4830-B92E-E9B51900E784</t>
+  </si>
+  <si>
+    <t>Mr.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gosal </t>
+  </si>
+  <si>
+    <t>Ram</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>2024-12-06</t>
+  </si>
+  <si>
+    <t>jason-leung-T844CLUxqvE-unsplash.jpg</t>
+  </si>
+  <si>
+    <t>sfdg</t>
+  </si>
+  <si>
+    <t>dsfg</t>
+  </si>
+  <si>
+    <t>gosal@gmail.com</t>
+  </si>
+  <si>
+    <t>role1, role3</t>
   </si>
 </sst>
 </file>
@@ -104,14 +140,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:O1"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="7" max="7" width="17.03125" customWidth="true" bestFit="true"/>
-    <col min="1" max="1" width="11.5859375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="36.0390625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="39.453125" customWidth="true" bestFit="true"/>
+    <col min="14" max="14" width="16.87890625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="11.3828125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="11.52734375" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="10.96484375" customWidth="true" bestFit="true"/>
@@ -123,8 +160,8 @@
     <col min="11" max="11" width="6.5390625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="9.8359375" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="9.20703125" customWidth="true" bestFit="true"/>
-    <col min="14" max="14" width="6.74609375" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="8.125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="16" max="16" width="11.3671875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -173,6 +210,59 @@
       <c r="O1" t="s">
         <v>15</v>
       </c>
+      <c r="P1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" t="n">
+        <v>639001.0</v>
+      </c>
+      <c r="N2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O2" t="n">
+        <v>9.791671267E9</v>
+      </c>
+      <c r="P2" t="s">
+        <v>27</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/assets/spreadsheets/addressBookcontacts.xlsx
+++ b/assets/spreadsheets/addressBookcontacts.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="28">
   <si>
     <t/>
   </si>
@@ -60,6 +60,42 @@
   </si>
   <si>
     <t>MOBILE</t>
+  </si>
+  <si>
+    <t>Roles</t>
+  </si>
+  <si>
+    <t>73135652-3192-4830-B92E-E9B51900E784</t>
+  </si>
+  <si>
+    <t>Mr.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gosal </t>
+  </si>
+  <si>
+    <t>Ram</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>2024-12-06</t>
+  </si>
+  <si>
+    <t>user-grey-icon.png</t>
+  </si>
+  <si>
+    <t>sfdg</t>
+  </si>
+  <si>
+    <t>dsfg</t>
+  </si>
+  <si>
+    <t>gosal@gmail.com</t>
+  </si>
+  <si>
+    <t>role1, role2, role3</t>
   </si>
 </sst>
 </file>
@@ -104,14 +140,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:O1"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="7" max="7" width="17.03125" customWidth="true" bestFit="true"/>
-    <col min="1" max="1" width="11.5859375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="17.80859375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="39.453125" customWidth="true" bestFit="true"/>
+    <col min="14" max="14" width="16.87890625" customWidth="true" bestFit="true"/>
+    <col min="16" max="16" width="17.0546875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="11.3828125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="11.52734375" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="10.96484375" customWidth="true" bestFit="true"/>
@@ -123,8 +161,7 @@
     <col min="11" max="11" width="6.5390625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="9.8359375" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="9.20703125" customWidth="true" bestFit="true"/>
-    <col min="14" max="14" width="6.74609375" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="8.125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="12.1875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -173,6 +210,59 @@
       <c r="O1" t="s">
         <v>15</v>
       </c>
+      <c r="P1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" t="n">
+        <v>639001.0</v>
+      </c>
+      <c r="N2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O2" t="n">
+        <v>9.791671267E9</v>
+      </c>
+      <c r="P2" t="s">
+        <v>27</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/assets/spreadsheets/addressBookcontacts.xlsx
+++ b/assets/spreadsheets/addressBookcontacts.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="44">
   <si>
     <t/>
   </si>
@@ -62,40 +62,88 @@
     <t>MOBILE</t>
   </si>
   <si>
-    <t>Roles</t>
-  </si>
-  <si>
-    <t>73135652-3192-4830-B92E-E9B51900E784</t>
+    <t>ROLENAMES</t>
   </si>
   <si>
     <t>Mr.</t>
   </si>
   <si>
+    <t>sreerewww</t>
+  </si>
+  <si>
+    <t>Ram</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>2024-12-08</t>
+  </si>
+  <si>
+    <t>user-grey-icon.png</t>
+  </si>
+  <si>
+    <t>dszf</t>
+  </si>
+  <si>
+    <t>dfg</t>
+  </si>
+  <si>
+    <t>sfgd</t>
+  </si>
+  <si>
+    <t>dsfg</t>
+  </si>
+  <si>
+    <t>fgds</t>
+  </si>
+  <si>
+    <t>ram@gmail.com</t>
+  </si>
+  <si>
+    <t>role3</t>
+  </si>
+  <si>
     <t xml:space="preserve">Gosal </t>
   </si>
   <si>
-    <t>Ram</t>
-  </si>
-  <si>
-    <t>Male</t>
+    <t>2024-12-07</t>
+  </si>
+  <si>
+    <t>fsda</t>
+  </si>
+  <si>
+    <t>sfd</t>
+  </si>
+  <si>
+    <t>sdfa</t>
+  </si>
+  <si>
+    <t>sdaf</t>
+  </si>
+  <si>
+    <t>sdf</t>
+  </si>
+  <si>
+    <t>abhijithff59@gmail.com</t>
+  </si>
+  <si>
+    <t>role1,role2</t>
   </si>
   <si>
     <t>2024-12-06</t>
   </si>
   <si>
-    <t>user-grey-icon.png</t>
-  </si>
-  <si>
-    <t>sfdg</t>
-  </si>
-  <si>
-    <t>dsfg</t>
-  </si>
-  <si>
-    <t>gosal@gmail.com</t>
-  </si>
-  <si>
-    <t>role1, role2, role3</t>
+    <t>asfd</t>
+  </si>
+  <si>
+    <t>safd</t>
+  </si>
+  <si>
+    <t>sfda</t>
+  </si>
+  <si>
+    <t>ram12@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -140,16 +188,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="7" max="7" width="17.80859375" customWidth="true" bestFit="true"/>
-    <col min="1" max="1" width="39.453125" customWidth="true" bestFit="true"/>
-    <col min="14" max="14" width="16.87890625" customWidth="true" bestFit="true"/>
-    <col min="16" max="16" width="17.0546875" customWidth="true" bestFit="true"/>
+    <col min="14" max="14" width="22.6328125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="11.5859375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="11.3828125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="11.52734375" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="10.96484375" customWidth="true" bestFit="true"/>
@@ -162,6 +209,7 @@
     <col min="12" max="12" width="9.8359375" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="9.20703125" customWidth="true" bestFit="true"/>
     <col min="15" max="15" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="16" max="16" width="12.34765625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -215,53 +263,153 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
+      <c r="A2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B2" t="s">
         <v>17</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>18</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>19</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>20</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>21</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>22</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>23</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>24</v>
-      </c>
-      <c r="I2" t="s">
-        <v>25</v>
       </c>
       <c r="J2" t="s">
         <v>25</v>
       </c>
       <c r="K2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="M2" t="n">
-        <v>639001.0</v>
+        <v>629001.0</v>
       </c>
       <c r="N2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="O2" t="n">
         <v>9.791671267E9</v>
       </c>
       <c r="P2" t="s">
-        <v>27</v>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L3" t="s">
+        <v>36</v>
+      </c>
+      <c r="M3" t="n">
+        <v>639001.0</v>
+      </c>
+      <c r="N3" t="s">
+        <v>37</v>
+      </c>
+      <c r="O3" t="n">
+        <v>9.791671259E9</v>
+      </c>
+      <c r="P3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" t="s">
+        <v>36</v>
+      </c>
+      <c r="I4" t="s">
+        <v>40</v>
+      </c>
+      <c r="J4" t="s">
+        <v>41</v>
+      </c>
+      <c r="K4" t="s">
+        <v>42</v>
+      </c>
+      <c r="L4" t="s">
+        <v>42</v>
+      </c>
+      <c r="M4" t="n">
+        <v>629001.0</v>
+      </c>
+      <c r="N4" t="s">
+        <v>43</v>
+      </c>
+      <c r="O4" t="n">
+        <v>9.791679264E9</v>
+      </c>
+      <c r="P4" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
